--- a/data-raw/excel/lait_vache.xlsx
+++ b/data-raw/excel/lait_vache.xlsx
@@ -2,34 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian.steunou\Documents\agreste\data-raw\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\killian.steunou\Documents\agreste\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
-  <si>
-    <t xml:space="preserve">  REGIONS</t>
-  </si>
-  <si>
-    <t>Livraisons de lait de vache</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+  <si>
+    <t>REGIONS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Livraisons de lait devache</t>
   </si>
   <si>
     <t>Nombre de producteurs</t>
@@ -41,13 +39,22 @@
     <t>Total Lait</t>
   </si>
   <si>
+    <t>Part du lait bio</t>
+  </si>
+  <si>
+    <t>Part des producteurs bio</t>
+  </si>
+  <si>
     <t>11 -</t>
   </si>
   <si>
-    <t xml:space="preserve">Île-de-France           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">s  </t>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>24 -</t>
@@ -83,7 +90,7 @@
     <t>52 -</t>
   </si>
   <si>
-    <t xml:space="preserve">Pays-de-la-Loire       </t>
+    <t>Pays-de-la-Loire</t>
   </si>
   <si>
     <t>53 -</t>
@@ -119,7 +126,7 @@
     <t>94 -</t>
   </si>
   <si>
-    <t xml:space="preserve">Corse                    </t>
+    <t>Corse</t>
   </si>
   <si>
     <t>97 -</t>
@@ -128,16 +135,7 @@
     <t>DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCE METROPOLITAINE             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Part du lait bio</t>
-  </si>
-  <si>
-    <t>Part des producteurs bio</t>
+    <t>FRANCE METROPOLITAINE</t>
   </si>
 </sst>
 </file>
@@ -147,7 +145,7 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -204,45 +203,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -271,13 +266,9 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -315,142 +306,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -459,123 +474,121 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>38234</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
         <v>6829</v>
       </c>
       <c r="D4" s="1">
         <v>426012</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>1.6</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>27</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>716</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>3.8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1">
         <v>90190</v>
@@ -583,25 +596,25 @@
       <c r="D5" s="1">
         <v>1621550</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5.6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>312</v>
       </c>
       <c r="G5" s="1">
         <v>4147</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>126060</v>
@@ -609,25 +622,25 @@
       <c r="D6" s="1">
         <v>3837701</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>3.3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>438</v>
       </c>
       <c r="G6" s="1">
         <v>7100</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>6.2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <v>49085</v>
@@ -635,25 +648,25 @@
       <c r="D7" s="1">
         <v>2348719</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>2.1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>192</v>
       </c>
       <c r="G7" s="1">
         <v>4479</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>4.3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>116571</v>
@@ -661,25 +674,25 @@
       <c r="D8" s="1">
         <v>2318872</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>358</v>
       </c>
       <c r="G8" s="1">
         <v>4196</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>232758</v>
@@ -687,25 +700,25 @@
       <c r="D9" s="1">
         <v>3785292</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>6.1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>719</v>
       </c>
       <c r="G9" s="1">
         <v>6931</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>10.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>245477</v>
@@ -713,25 +726,25 @@
       <c r="D10" s="1">
         <v>5407313</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>4.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>784</v>
       </c>
       <c r="G10" s="1">
         <v>9981</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>7.9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>34529</v>
@@ -739,25 +752,25 @@
       <c r="D11" s="1">
         <v>1013660</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>3.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>154</v>
       </c>
       <c r="G11" s="1">
         <v>2330</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>6.6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>53569</v>
@@ -765,25 +778,25 @@
       <c r="D12" s="1">
         <v>675815</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>7.9</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>250</v>
       </c>
       <c r="G12" s="1">
         <v>2148</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>11.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>163598</v>
@@ -791,100 +804,103 @@
       <c r="D13" s="1">
         <v>2456215</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>6.7</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>737</v>
       </c>
       <c r="G13" s="1">
         <v>8083</v>
       </c>
-      <c r="H13">
-        <v>9.1</v>
+      <c r="H13" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>19063</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
         <v>27</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>119</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>22.7</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
         <v>0</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15">
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16">
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>1122240</v>
@@ -892,7 +908,7 @@
       <c r="D17" s="1">
         <v>23948446</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>4.7</v>
       </c>
       <c r="F17" s="1">
@@ -901,11 +917,12 @@
       <c r="G17" s="1">
         <v>50289</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>